--- a/폴더Path/날씨입력.xlsx
+++ b/폴더Path/날씨입력.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UipathLINQ연습\폴더Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97FE1627-DC8A-451A-8610-49C83CA09BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD65B32-974B-4952-AF99-BB772C1A2666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6180" xr2:uid="{F405A048-2B59-40FC-A4F7-D989E3F65ABA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>City</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +74,163 @@
   </si>
   <si>
     <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Tempeature</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Skyet</t>
+  </si>
+  <si>
+    <t>8 m/s Sydvest</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Mest skyet</t>
+  </si>
+  <si>
+    <t>7 m/s Sydøst</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Delvist skyet</t>
+  </si>
+  <si>
+    <t>11 m/s Syd</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>8 m/s Sydøst</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Regn</t>
+  </si>
+  <si>
+    <t>17 m/s Syd</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>2 m/s Nord</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>12 m/s Sydøst</t>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tempeature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>London</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mest skyet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 m/s Vest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 m/s Sydøst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 m/s Syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skyet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 m/s Sydøst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 m/s Syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucharest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 m/s Nord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vienna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 m/s Sydøst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +594,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C29356E-E002-4D90-88D4-1ABAA43EDA93}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9C8BBD-64CF-4F34-8E51-EC603426733F}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1984404-30AC-4DB7-89D2-DB4B3E513FCF}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/폴더Path/날씨입력.xlsx
+++ b/폴더Path/날씨입력.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UipathLINQ연습\폴더Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD65B32-974B-4952-AF99-BB772C1A2666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF9C22-DB99-49AA-85C6-B0DC8A0EC49E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6180" xr2:uid="{F405A048-2B59-40FC-A4F7-D989E3F65ABA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>City</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,159 +77,58 @@
   </si>
   <si>
     <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tempeature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>London</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skyet</t>
-  </si>
-  <si>
-    <t>8 m/s Sydvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 m/s Sydvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Berlin</t>
-  </si>
-  <si>
-    <t>Mest skyet</t>
-  </si>
-  <si>
-    <t>7 m/s Sydøst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Madrid</t>
-  </si>
-  <si>
-    <t>Delvist skyet</t>
-  </si>
-  <si>
-    <t>11 m/s Syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rome</t>
-  </si>
-  <si>
-    <t>8 m/s Sydøst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Paris</t>
-  </si>
-  <si>
-    <t>Regn</t>
-  </si>
-  <si>
-    <t>17 m/s Syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bucharest</t>
-  </si>
-  <si>
-    <t>2 m/s Nord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vienna</t>
-  </si>
-  <si>
-    <t>12 m/s Sydøst</t>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tempeature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mest skyet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 m/s Vest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Berlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 m/s Sydøst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 m/s Syd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skyet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 m/s Sydøst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 m/s Syd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bucharest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 m/s Nord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vienna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 m/s Sydøst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C29356E-E002-4D90-88D4-1ABAA43EDA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9896F6D-1613-40B5-8985-3DCC53746583}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -603,138 +501,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B8">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
       <c r="D8">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -744,156 +642,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9C8BBD-64CF-4F34-8E51-EC603426733F}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1984404-30AC-4DB7-89D2-DB4B3E513FCF}">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/폴더Path/날씨입력.xlsx
+++ b/폴더Path/날씨입력.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UipathLINQ연습\폴더Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF9C22-DB99-49AA-85C6-B0DC8A0EC49E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA352-DC42-4AED-9A96-BE06558F83A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6180" xr2:uid="{F405A048-2B59-40FC-A4F7-D989E3F65ABA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>City</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,59 +77,69 @@
   </si>
   <si>
     <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tempeature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skyet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 m/s Sydvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mest skyet</t>
+  </si>
+  <si>
+    <t>14 m/s Sydvest</t>
   </si>
   <si>
     <t>Berlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 m/s Sydvest</t>
   </si>
   <si>
     <t>Madrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solrigt</t>
+  </si>
+  <si>
+    <t>4 m/s Nordøst</t>
   </si>
   <si>
     <t>Rome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overvejende solrig</t>
+  </si>
+  <si>
+    <t>5 m/s Nord</t>
   </si>
   <si>
     <t>Paris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 m/s Nord</t>
   </si>
   <si>
     <t>Bucharest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 m/s Nordøst</t>
   </si>
   <si>
     <t>Vienna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 m/s Nord</t>
   </si>
 </sst>
 </file>
@@ -492,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9896F6D-1613-40B5-8985-3DCC53746583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5313B19D-8AF1-48D3-9D0D-2D9C5BD471EB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -521,13 +531,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -538,101 +548,101 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>69</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +656,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/폴더Path/날씨입력.xlsx
+++ b/폴더Path/날씨입력.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UipathLINQ연습\폴더Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA352-DC42-4AED-9A96-BE06558F83A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6F817-87B6-4623-8352-2C6A023151B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6180" xr2:uid="{F405A048-2B59-40FC-A4F7-D989E3F65ABA}"/>
   </bookViews>
@@ -97,28 +97,31 @@
     <t>Mest skyet</t>
   </si>
   <si>
-    <t>14 m/s Sydvest</t>
+    <t>11 m/s Sydvest</t>
   </si>
   <si>
     <t>Berlin</t>
   </si>
   <si>
-    <t>20 m/s Sydvest</t>
+    <t>Skyet</t>
+  </si>
+  <si>
+    <t>6 m/s Syd</t>
   </si>
   <si>
     <t>Madrid</t>
   </si>
   <si>
-    <t>Solrigt</t>
-  </si>
-  <si>
-    <t>4 m/s Nordøst</t>
+    <t>Mest klart</t>
+  </si>
+  <si>
+    <t>4 m/s Nord</t>
   </si>
   <si>
     <t>Rome</t>
   </si>
   <si>
-    <t>Overvejende solrig</t>
+    <t>Delvist skyet</t>
   </si>
   <si>
     <t>5 m/s Nord</t>
@@ -127,19 +130,16 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>3 m/s Nord</t>
-  </si>
-  <si>
     <t>Bucharest</t>
   </si>
   <si>
-    <t>5 m/s Nordøst</t>
+    <t>2 m/s Nordøst</t>
   </si>
   <si>
     <t>Vienna</t>
   </si>
   <si>
-    <t>4 m/s Nord</t>
+    <t>11 m/s Nordvest</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5313B19D-8AF1-48D3-9D0D-2D9C5BD471EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA28CBBD-95B8-4362-8EB7-E1686B1CD229}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -531,13 +531,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -548,67 +548,67 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -616,13 +616,13 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -633,13 +633,13 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
